--- a/earlywarning-pom/Document/test/ESTERE/Unit Test_Rapporto avanzamento non regression test App2.0_ISPRO_ISBA.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/Unit Test_Rapporto avanzamento non regression test App2.0_ISPRO_ISBA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\ISP\git\client-intesa\client-intesa\earlywarning-pom\Document\test\ESTERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId6"/>
-    <pivotCache cacheId="26" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1511,50 +1511,50 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,853 +1619,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="203">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <border>
         <left style="medium">
@@ -3307,6 +2461,11 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5942,7 +5101,61 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42936.971643287034" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42937.45496747685" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="43"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42937.454967824073" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -5978,9 +5191,9 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Ok"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
         <m/>
+        <s v="Ok" u="1"/>
         <s v="Ko" u="1"/>
         <s v="Non verificato" u="1"/>
       </sharedItems>
@@ -6002,62 +5215,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42936.971643865741" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="43"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <m/>
-        <s v="Ok"/>
-        <s v="Da eseguire" u="1"/>
-        <s v="ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="46">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
   <r>
     <s v="EWS App-ISPRO"/>
     <n v="1"/>
@@ -6067,24 +5226,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="2"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6095,10 +5239,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6109,10 +5252,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6123,10 +5265,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6137,10 +5278,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6151,10 +5291,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6165,10 +5304,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6179,10 +5317,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6193,10 +5330,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6207,10 +5343,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6221,10 +5356,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6235,10 +5369,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6249,10 +5382,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6263,10 +5395,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6277,10 +5408,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6291,10 +5421,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6305,10 +5434,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6319,10 +5447,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6333,10 +5460,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6347,10 +5473,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISPRO"/>
@@ -6361,14 +5486,304 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="21"/>
+    <n v="23"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="25"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Final Score"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="26"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="colore finale"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="27"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Client Mispayment Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="28"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Handling Account Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="29"/>
+    <s v="Matrix (Connection Node)"/>
+    <m/>
+    <s v="colore matrice primo rischio"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="30"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Fatal (ex Fast-Track)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="31"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Trigger (ex Exception 1)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="32"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 2"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="33"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 3"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="34"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR01"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="35"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR02"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="36"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR05"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="37"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR06"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="38"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR08"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="39"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR12"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="40"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR15"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="41"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR16"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="42"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR17"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="43"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR18"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="1"/>
     <s v="Final Score"/>
     <m/>
     <s v="numerosità controparti"/>
@@ -6381,14 +5796,280 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-ISBA "/>
-    <n v="22"/>
+    <s v="EWS App-ISPRO"/>
+    <n v="3"/>
     <s v="Final Score"/>
     <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
+    <s v="numerosità controparti per Final Score"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="4"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="colore finale"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="5"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Client Mispayment Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="6"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Handling Account Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="7"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Balance Sheet Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="8"/>
+    <s v="Matrix (Connection Node)"/>
+    <m/>
+    <s v="colore matrice primo rischio"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="9"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Fatal (ex Fast-Track)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="10"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Trigger (ex Exception 1)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="11"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 3"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="12"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR01"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="13"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR02"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="14"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR05"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="15"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR06"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="16"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR08"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="17"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR12"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="18"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR15"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="19"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR16"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="20"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR17"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="21"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR18"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISPRO"/>
+    <n v="22"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR20"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
     <s v="Ok"/>
     <m/>
     <x v="0"/>
@@ -6399,6 +6080,20 @@
     <n v="23"/>
     <s v="Final Score"/>
     <m/>
+    <s v="numerosità controparti"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-ISBA "/>
+    <n v="25"/>
+    <s v="Final Score"/>
+    <m/>
     <s v="numerosità controparti per Final Score"/>
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
@@ -6410,7 +6105,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="24"/>
+    <n v="26"/>
     <s v="Final Score"/>
     <m/>
     <s v="colore finale"/>
@@ -6424,7 +6119,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="25"/>
+    <n v="27"/>
     <s v="Predictive Model"/>
     <m/>
     <s v="colore Client Mispayment Module"/>
@@ -6438,7 +6133,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="26"/>
+    <n v="28"/>
     <s v="Predictive Model"/>
     <m/>
     <s v="colore Handling Account Module"/>
@@ -6452,7 +6147,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="27"/>
+    <n v="29"/>
     <s v="Matrix (Connection Node)"/>
     <m/>
     <s v="colore matrice primo rischio"/>
@@ -6466,7 +6161,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="28"/>
+    <n v="30"/>
     <s v="Decision List (Input Node)"/>
     <m/>
     <s v="accensione AQR Fatal (ex Fast-Track)"/>
@@ -6480,7 +6175,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="29"/>
+    <n v="31"/>
     <s v="Decision List (Input Node)"/>
     <m/>
     <s v="accensione AQR Trigger (ex Exception 1)"/>
@@ -6494,7 +6189,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="30"/>
+    <n v="32"/>
     <s v="Exception (Connection Node)"/>
     <m/>
     <s v="accensione Exception 2"/>
@@ -6508,7 +6203,7 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="31"/>
+    <n v="33"/>
     <s v="Exception (Connection Node)"/>
     <m/>
     <s v="accensione Exception 3"/>
@@ -6522,13 +6217,13 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="32"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 5"/>
+    <n v="34"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR01"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
     <s v="Ok"/>
     <m/>
     <x v="0"/>
@@ -6536,13 +6231,13 @@
   </r>
   <r>
     <s v="EWS App-ISBA "/>
-    <n v="33"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 6"/>
+    <n v="35"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR02"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
     <s v="Ok"/>
     <m/>
     <x v="0"/>
@@ -6553,7 +6248,7 @@
     <n v="36"/>
     <s v="Business Rules"/>
     <m/>
-    <s v="BR01"/>
+    <s v="BR05"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
@@ -6567,7 +6262,7 @@
     <n v="37"/>
     <s v="Business Rules"/>
     <m/>
-    <s v="BR02"/>
+    <s v="BR06"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
@@ -6581,7 +6276,7 @@
     <n v="38"/>
     <s v="Business Rules"/>
     <m/>
-    <s v="BR05"/>
+    <s v="BR08"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
@@ -6595,7 +6290,7 @@
     <n v="39"/>
     <s v="Business Rules"/>
     <m/>
-    <s v="BR06"/>
+    <s v="BR12"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
@@ -6609,7 +6304,7 @@
     <n v="40"/>
     <s v="Business Rules"/>
     <m/>
-    <s v="BR08"/>
+    <s v="BR15"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
@@ -6623,7 +6318,7 @@
     <n v="41"/>
     <s v="Business Rules"/>
     <m/>
-    <s v="BR12"/>
+    <s v="BR16"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
@@ -6637,34 +6332,6 @@
     <n v="42"/>
     <s v="Business Rules"/>
     <m/>
-    <s v="BR15"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="42"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR16"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="42"/>
-    <s v="Business Rules"/>
-    <m/>
     <s v="BR17"/>
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
@@ -6699,617 +6366,28 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="46">
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="1"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="2"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="3"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="4"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="colore finale"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="5"/>
-    <s v="Predictive Model"/>
-    <m/>
-    <s v="colore Client Mispayment Module"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="6"/>
-    <s v="Predictive Model"/>
-    <m/>
-    <s v="colore Handling Account Module"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="7"/>
-    <s v="Predictive Model"/>
-    <m/>
-    <s v="colore Balance Sheet Module"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="8"/>
-    <s v="Matrix (Connection Node)"/>
-    <m/>
-    <s v="colore matrice primo rischio"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="9"/>
-    <s v="Decision List (Input Node)"/>
-    <m/>
-    <s v="accensione AQR Fatal (ex Fast-Track)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="10"/>
-    <s v="Decision List (Input Node)"/>
-    <m/>
-    <s v="accensione AQR Trigger (ex Exception 1)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="11"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 3"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="12"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR01"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="13"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR02"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="14"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR05"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="15"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR06"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="16"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR08"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="17"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR12"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="18"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR15"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="19"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR16"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="20"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR17"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="21"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR18"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISPRO"/>
-    <n v="22"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR20"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISPRO)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="21"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="22"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="23"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="24"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="colore finale"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="25"/>
-    <s v="Predictive Model"/>
-    <m/>
-    <s v="colore Client Mispayment Module"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="26"/>
-    <s v="Predictive Model"/>
-    <m/>
-    <s v="colore Handling Account Module"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="27"/>
-    <s v="Matrix (Connection Node)"/>
-    <m/>
-    <s v="colore matrice primo rischio"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="28"/>
-    <s v="Decision List (Input Node)"/>
-    <m/>
-    <s v="accensione AQR Fatal (ex Fast-Track)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="29"/>
-    <s v="Decision List (Input Node)"/>
-    <m/>
-    <s v="accensione AQR Trigger (ex Exception 1)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="30"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 2"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="31"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 3"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="32"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 5"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="33"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 6"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="36"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR01"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="37"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR02"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="38"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR05"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="39"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR06"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="40"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR08"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="41"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR12"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="42"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR15"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="42"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR16"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="42"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR17"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-ISBA "/>
-    <n v="43"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR18"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_ISBA)"/>
-    <x v="1"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
   <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -7325,8 +6403,8 @@
         <item h="1" m="1" x="2"/>
         <item h="1" m="1" x="4"/>
         <item m="1" x="3"/>
-        <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7354,160 +6432,160 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="44">
-    <format dxfId="145">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="41">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="40">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="39">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="38">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="32">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="25">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="18">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="11">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="4">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7524,7 +6602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7540,8 +6618,8 @@
     <pivotField axis="axisRow">
       <items count="5">
         <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
         <item m="1" x="2"/>
         <item t="default"/>
       </items>
@@ -7572,107 +6650,107 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="174">
+    <format dxfId="72">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="71">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="69">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="64">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="164">
+    <format dxfId="62">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="57">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="55">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="48">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7689,7 +6767,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7734,96 +6812,96 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="202">
+    <format dxfId="100">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="99">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="98">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="97">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="96">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="95">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="90">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="89">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="86">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="80">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="75">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8522,80 +7600,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="109"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="103"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="112"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="112"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="115"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="109"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -8721,161 +7799,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102" t="s">
+      <c r="C37" s="99"/>
+      <c r="D37" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102" t="s">
+      <c r="C38" s="99"/>
+      <c r="D38" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102" t="s">
+      <c r="C39" s="99"/>
+      <c r="D39" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102" t="s">
+      <c r="C40" s="99"/>
+      <c r="D40" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102" t="s">
+      <c r="C41" s="99"/>
+      <c r="D41" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="106" t="s">
+      <c r="C42" s="99"/>
+      <c r="D42" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="105"/>
-      <c r="F42" s="102" t="s">
+      <c r="E42" s="111"/>
+      <c r="F42" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102" t="s">
+      <c r="G42" s="100"/>
+      <c r="H42" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102" t="s">
+      <c r="C43" s="99"/>
+      <c r="D43" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="103">
+      <c r="C44" s="99"/>
+      <c r="D44" s="114">
         <v>42879</v>
       </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="102" t="s">
+      <c r="E44" s="115"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="103">
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="114">
         <v>42879</v>
       </c>
-      <c r="K44" s="105"/>
+      <c r="K44" s="111"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -8926,35 +8004,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -9005,25 +8083,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -9032,6 +8091,25 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10527,7 +9605,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -10612,7 +9690,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="38">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -10635,7 +9713,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="39">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
@@ -10672,9 +9750,9 @@
         <v>39</v>
       </c>
       <c r="I11" s="34"/>
-      <c r="J11" s="29">
+      <c r="J11" s="29" t="e">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Non verificato")/GETPIVOTDATA("ID",$H$10)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="54" t="s">
@@ -10697,12 +9775,10 @@
       <c r="H12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="35">
-        <v>44</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="I12" s="35"/>
+      <c r="J12" s="29" t="e">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Ok")/GETPIVOTDATA("ID",$H$10)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="56" t="s">
@@ -10726,9 +9802,9 @@
         <v>38</v>
       </c>
       <c r="I13" s="35"/>
-      <c r="J13" s="29">
+      <c r="J13" s="29" t="e">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Ko")/GETPIVOTDATA("ID",$H$10)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="56" t="s">
@@ -10748,9 +9824,7 @@
       <c r="H14" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="36">
-        <v>44</v>
-      </c>
+      <c r="I14" s="36"/>
       <c r="J14" s="26"/>
       <c r="K14" s="27"/>
       <c r="L14" s="17"/>
@@ -11003,7 +10077,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11160,7 +10234,7 @@
   </sheetPr>
   <dimension ref="C2:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
@@ -11217,6 +10291,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -11330,33 +10419,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11377,9 +10443,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>